--- a/config/codes_sp.xlsx
+++ b/config/codes_sp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\OneDrive\Desktop\situational-plan-server\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\OneDrive\Documents\GitHub\situational-plan-server\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D7A91C-72EA-4278-ACDD-63E7E9FDA170}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208026D6-8E69-4A65-9322-9FE9AC98AB7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="928" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1423,15 +1423,6 @@
     <t>С</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
     <t>I1</t>
   </si>
   <si>
@@ -1600,13 +1591,22 @@
     <t>controllerInputs.getByItem('item100')</t>
   </si>
   <si>
-    <t xml:space="preserve">controllerInputs.getByItem('item1') &amp;&amp; controllerInputs.getByItem('U1')  &amp;&amp; controllerInputs.getByItem('I1')   &amp;&amp; !controllerInputs.getByItem('item100') </t>
-  </si>
-  <si>
-    <t xml:space="preserve">controllerInputs.getByItem('item2')  &amp;&amp; controllerInputs.getByItem('U2')  &amp;&amp; controllerInputs.getByItem('I2')    &amp;&amp; !controllerInputs.getByItem('item100') </t>
-  </si>
-  <si>
-    <t xml:space="preserve">controllerInputs.getByItem('item3')  &amp;&amp; controllerInputs.getByItem('U3')  &amp;&amp; controllerInputs.getByItem('I3')    &amp;&amp; !controllerInputs.getByItem('item100') </t>
+    <t>u1</t>
+  </si>
+  <si>
+    <t>u2</t>
+  </si>
+  <si>
+    <t>u3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!controllerInputs.getByItem('item2')  &amp;&amp; !controllerInputs.getByItem('item100') </t>
+  </si>
+  <si>
+    <t xml:space="preserve">!controllerInputs.getByItem('item1') &amp;&amp; !controllerInputs.getByItem('item100') </t>
+  </si>
+  <si>
+    <t xml:space="preserve">!controllerInputs.getByItem('item3')  &amp;&amp; !controllerInputs.getByItem('item100') </t>
   </si>
 </sst>
 </file>
@@ -2349,6 +2349,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2398,7 +2410,10 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2449,6 +2464,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2467,9 +2485,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2487,21 +2502,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3006,10 +3006,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="90" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4696,8 +4696,8 @@
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="23"/>
-      <c r="C53" s="166"/>
-      <c r="D53" s="166"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="170"/>
       <c r="E53" s="23"/>
       <c r="F53" s="23"/>
       <c r="G53" s="39"/>
@@ -4710,8 +4710,8 @@
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="39"/>
       <c r="B54" s="23"/>
-      <c r="C54" s="166"/>
-      <c r="D54" s="166"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
       <c r="E54" s="23"/>
       <c r="F54" s="23"/>
       <c r="G54" s="39"/>
@@ -4724,8 +4724,8 @@
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="23"/>
-      <c r="C55" s="166"/>
-      <c r="D55" s="166"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
       <c r="E55" s="23"/>
       <c r="F55" s="23"/>
       <c r="G55" s="39"/>
@@ -4738,8 +4738,8 @@
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="23"/>
-      <c r="C56" s="166"/>
-      <c r="D56" s="166"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="170"/>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
       <c r="G56" s="39"/>
@@ -4752,8 +4752,8 @@
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="23"/>
-      <c r="C57" s="166"/>
-      <c r="D57" s="166"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="170"/>
       <c r="E57" s="23"/>
       <c r="F57" s="23"/>
       <c r="G57" s="39"/>
@@ -4766,8 +4766,8 @@
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="23"/>
-      <c r="C58" s="166"/>
-      <c r="D58" s="166"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="170"/>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
       <c r="G58" s="39"/>
@@ -4780,8 +4780,8 @@
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="23"/>
-      <c r="C59" s="166"/>
-      <c r="D59" s="166"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="170"/>
       <c r="E59" s="40"/>
       <c r="F59" s="23"/>
       <c r="G59" s="39"/>
@@ -4794,8 +4794,8 @@
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="23"/>
-      <c r="C60" s="166"/>
-      <c r="D60" s="166"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="170"/>
       <c r="E60" s="40"/>
       <c r="F60" s="23"/>
       <c r="G60" s="39"/>
@@ -4808,8 +4808,8 @@
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="23"/>
-      <c r="C61" s="166"/>
-      <c r="D61" s="166"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="170"/>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
       <c r="G61" s="39"/>
@@ -4822,8 +4822,8 @@
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="23"/>
-      <c r="C62" s="166"/>
-      <c r="D62" s="166"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="170"/>
       <c r="E62" s="40"/>
       <c r="F62" s="23"/>
       <c r="G62" s="39"/>
@@ -4836,8 +4836,8 @@
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="23"/>
-      <c r="C63" s="166"/>
-      <c r="D63" s="166"/>
+      <c r="C63" s="170"/>
+      <c r="D63" s="170"/>
       <c r="E63" s="40"/>
       <c r="F63" s="23"/>
       <c r="G63" s="39"/>
@@ -4850,8 +4850,8 @@
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="23"/>
-      <c r="C67" s="182"/>
-      <c r="D67" s="182"/>
+      <c r="C67" s="186"/>
+      <c r="D67" s="186"/>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
       <c r="G67" s="39"/>
@@ -4892,8 +4892,8 @@
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
       <c r="B70" s="23"/>
-      <c r="C70" s="182"/>
-      <c r="D70" s="182"/>
+      <c r="C70" s="186"/>
+      <c r="D70" s="186"/>
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
       <c r="G70" s="39"/>
@@ -4934,8 +4934,8 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
       <c r="B73" s="23"/>
-      <c r="C73" s="182"/>
-      <c r="D73" s="182"/>
+      <c r="C73" s="186"/>
+      <c r="D73" s="186"/>
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
       <c r="G73" s="39"/>
@@ -5074,8 +5074,8 @@
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
       <c r="B83" s="23"/>
-      <c r="C83" s="182"/>
-      <c r="D83" s="182"/>
+      <c r="C83" s="186"/>
+      <c r="D83" s="186"/>
       <c r="E83" s="23"/>
       <c r="F83" s="23"/>
       <c r="G83" s="39"/>
@@ -5088,8 +5088,8 @@
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="23"/>
-      <c r="C84" s="182"/>
-      <c r="D84" s="182"/>
+      <c r="C84" s="186"/>
+      <c r="D84" s="186"/>
       <c r="E84" s="40"/>
       <c r="F84" s="23"/>
       <c r="G84" s="39"/>
@@ -5102,8 +5102,8 @@
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="23"/>
-      <c r="C85" s="182"/>
-      <c r="D85" s="182"/>
+      <c r="C85" s="186"/>
+      <c r="D85" s="186"/>
       <c r="E85" s="40"/>
       <c r="F85" s="23"/>
       <c r="G85" s="39"/>
@@ -5116,8 +5116,8 @@
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="23"/>
-      <c r="C86" s="182"/>
-      <c r="D86" s="182"/>
+      <c r="C86" s="186"/>
+      <c r="D86" s="186"/>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
       <c r="G86" s="39"/>
@@ -5130,8 +5130,8 @@
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
       <c r="B87" s="23"/>
-      <c r="C87" s="182"/>
-      <c r="D87" s="182"/>
+      <c r="C87" s="186"/>
+      <c r="D87" s="186"/>
       <c r="E87" s="40"/>
       <c r="F87" s="23"/>
       <c r="G87" s="39"/>
@@ -5144,8 +5144,8 @@
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="23"/>
-      <c r="C88" s="182"/>
-      <c r="D88" s="182"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
       <c r="E88" s="40"/>
       <c r="F88" s="23"/>
       <c r="G88" s="39"/>
@@ -5158,8 +5158,8 @@
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="23"/>
-      <c r="C89" s="182"/>
-      <c r="D89" s="182"/>
+      <c r="C89" s="186"/>
+      <c r="D89" s="186"/>
       <c r="E89" s="23"/>
       <c r="F89" s="23"/>
       <c r="G89" s="39"/>
@@ -5172,8 +5172,8 @@
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="23"/>
-      <c r="C90" s="182"/>
-      <c r="D90" s="182"/>
+      <c r="C90" s="186"/>
+      <c r="D90" s="186"/>
       <c r="E90" s="40"/>
       <c r="F90" s="23"/>
       <c r="G90" s="39"/>
@@ -5186,8 +5186,8 @@
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>
       <c r="B91" s="23"/>
-      <c r="C91" s="182"/>
-      <c r="D91" s="182"/>
+      <c r="C91" s="186"/>
+      <c r="D91" s="186"/>
       <c r="E91" s="40"/>
       <c r="F91" s="23"/>
       <c r="G91" s="39"/>
@@ -5200,8 +5200,8 @@
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="39"/>
       <c r="B92" s="23"/>
-      <c r="C92" s="182"/>
-      <c r="D92" s="182"/>
+      <c r="C92" s="186"/>
+      <c r="D92" s="186"/>
       <c r="E92" s="23"/>
       <c r="F92" s="23"/>
       <c r="G92" s="39"/>
@@ -5214,8 +5214,8 @@
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="39"/>
       <c r="B93" s="23"/>
-      <c r="C93" s="182"/>
-      <c r="D93" s="182"/>
+      <c r="C93" s="186"/>
+      <c r="D93" s="186"/>
       <c r="E93" s="40"/>
       <c r="F93" s="23"/>
       <c r="G93" s="39"/>
@@ -5228,8 +5228,8 @@
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="39"/>
       <c r="B94" s="23"/>
-      <c r="C94" s="182"/>
-      <c r="D94" s="182"/>
+      <c r="C94" s="186"/>
+      <c r="D94" s="186"/>
       <c r="E94" s="40"/>
       <c r="F94" s="23"/>
       <c r="G94" s="39"/>
@@ -5242,8 +5242,8 @@
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="39"/>
       <c r="B95" s="23"/>
-      <c r="C95" s="182"/>
-      <c r="D95" s="182"/>
+      <c r="C95" s="186"/>
+      <c r="D95" s="186"/>
       <c r="E95" s="23"/>
       <c r="F95" s="23"/>
       <c r="G95" s="39"/>
@@ -5256,8 +5256,8 @@
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="39"/>
       <c r="B96" s="23"/>
-      <c r="C96" s="182"/>
-      <c r="D96" s="182"/>
+      <c r="C96" s="186"/>
+      <c r="D96" s="186"/>
       <c r="E96" s="40"/>
       <c r="F96" s="23"/>
       <c r="G96" s="39"/>
@@ -5270,8 +5270,8 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="39"/>
       <c r="B97" s="23"/>
-      <c r="C97" s="182"/>
-      <c r="D97" s="182"/>
+      <c r="C97" s="186"/>
+      <c r="D97" s="186"/>
       <c r="E97" s="40"/>
       <c r="F97" s="23"/>
       <c r="G97" s="39"/>
@@ -5284,8 +5284,8 @@
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="39"/>
       <c r="B98" s="23"/>
-      <c r="C98" s="166"/>
-      <c r="D98" s="166"/>
+      <c r="C98" s="170"/>
+      <c r="D98" s="170"/>
       <c r="E98" s="23"/>
       <c r="F98" s="23"/>
       <c r="G98" s="39"/>
@@ -5298,8 +5298,8 @@
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="39"/>
       <c r="B99" s="23"/>
-      <c r="C99" s="166"/>
-      <c r="D99" s="166"/>
+      <c r="C99" s="170"/>
+      <c r="D99" s="170"/>
       <c r="E99" s="23"/>
       <c r="F99" s="23"/>
       <c r="G99" s="39"/>
@@ -5312,8 +5312,8 @@
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="39"/>
       <c r="B100" s="23"/>
-      <c r="C100" s="166"/>
-      <c r="D100" s="166"/>
+      <c r="C100" s="170"/>
+      <c r="D100" s="170"/>
       <c r="E100" s="23"/>
       <c r="F100" s="23"/>
       <c r="G100" s="39"/>
@@ -5326,8 +5326,8 @@
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="39"/>
       <c r="B101" s="23"/>
-      <c r="C101" s="166"/>
-      <c r="D101" s="166"/>
+      <c r="C101" s="170"/>
+      <c r="D101" s="170"/>
       <c r="E101" s="23"/>
       <c r="F101" s="23"/>
       <c r="G101" s="39"/>
@@ -5340,8 +5340,8 @@
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="39"/>
       <c r="B102" s="23"/>
-      <c r="C102" s="166"/>
-      <c r="D102" s="166"/>
+      <c r="C102" s="170"/>
+      <c r="D102" s="170"/>
       <c r="E102" s="23"/>
       <c r="F102" s="23"/>
       <c r="G102" s="39"/>
@@ -5354,8 +5354,8 @@
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="39"/>
       <c r="B103" s="23"/>
-      <c r="C103" s="166"/>
-      <c r="D103" s="166"/>
+      <c r="C103" s="170"/>
+      <c r="D103" s="170"/>
       <c r="E103" s="23"/>
       <c r="F103" s="23"/>
       <c r="G103" s="39"/>
@@ -5368,8 +5368,8 @@
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
       <c r="B104" s="23"/>
-      <c r="C104" s="166"/>
-      <c r="D104" s="166"/>
+      <c r="C104" s="170"/>
+      <c r="D104" s="170"/>
       <c r="E104" s="23"/>
       <c r="F104" s="23"/>
       <c r="G104" s="39"/>
@@ -5382,8 +5382,8 @@
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="39"/>
       <c r="B105" s="23"/>
-      <c r="C105" s="166"/>
-      <c r="D105" s="166"/>
+      <c r="C105" s="170"/>
+      <c r="D105" s="170"/>
       <c r="E105" s="23"/>
       <c r="F105" s="23"/>
       <c r="G105" s="39"/>
@@ -5396,8 +5396,8 @@
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="39"/>
       <c r="B106" s="23"/>
-      <c r="C106" s="166"/>
-      <c r="D106" s="166"/>
+      <c r="C106" s="170"/>
+      <c r="D106" s="170"/>
       <c r="E106" s="23"/>
       <c r="F106" s="23"/>
       <c r="G106" s="39"/>
@@ -5410,8 +5410,8 @@
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
       <c r="B107" s="23"/>
-      <c r="C107" s="166"/>
-      <c r="D107" s="166"/>
+      <c r="C107" s="170"/>
+      <c r="D107" s="170"/>
       <c r="E107" s="23"/>
       <c r="F107" s="23"/>
       <c r="G107" s="39"/>
@@ -5424,8 +5424,8 @@
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
       <c r="B108" s="23"/>
-      <c r="C108" s="166"/>
-      <c r="D108" s="166"/>
+      <c r="C108" s="170"/>
+      <c r="D108" s="170"/>
       <c r="E108" s="23"/>
       <c r="F108" s="23"/>
       <c r="G108" s="39"/>
@@ -5438,8 +5438,8 @@
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
       <c r="B109" s="23"/>
-      <c r="C109" s="166"/>
-      <c r="D109" s="166"/>
+      <c r="C109" s="170"/>
+      <c r="D109" s="170"/>
       <c r="E109" s="23"/>
       <c r="F109" s="23"/>
       <c r="G109" s="39"/>
@@ -5452,8 +5452,8 @@
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="39"/>
       <c r="B110" s="23"/>
-      <c r="C110" s="166"/>
-      <c r="D110" s="166"/>
+      <c r="C110" s="170"/>
+      <c r="D110" s="170"/>
       <c r="E110" s="23"/>
       <c r="F110" s="23"/>
       <c r="G110" s="39"/>
@@ -5466,8 +5466,8 @@
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
       <c r="B111" s="23"/>
-      <c r="C111" s="166"/>
-      <c r="D111" s="166"/>
+      <c r="C111" s="170"/>
+      <c r="D111" s="170"/>
       <c r="E111" s="23"/>
       <c r="F111" s="23"/>
       <c r="G111" s="39"/>
@@ -5480,8 +5480,8 @@
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="39"/>
       <c r="B112" s="23"/>
-      <c r="C112" s="166"/>
-      <c r="D112" s="166"/>
+      <c r="C112" s="170"/>
+      <c r="D112" s="170"/>
       <c r="E112" s="23"/>
       <c r="F112" s="23"/>
       <c r="G112" s="39"/>
@@ -5494,8 +5494,8 @@
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="39"/>
       <c r="B113" s="23"/>
-      <c r="C113" s="166"/>
-      <c r="D113" s="166"/>
+      <c r="C113" s="170"/>
+      <c r="D113" s="170"/>
       <c r="E113" s="23"/>
       <c r="F113" s="23"/>
       <c r="G113" s="39"/>
@@ -5508,8 +5508,8 @@
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="39"/>
       <c r="B114" s="23"/>
-      <c r="C114" s="166"/>
-      <c r="D114" s="166"/>
+      <c r="C114" s="170"/>
+      <c r="D114" s="170"/>
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
       <c r="G114" s="39"/>
@@ -5522,8 +5522,8 @@
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="39"/>
       <c r="B115" s="23"/>
-      <c r="C115" s="166"/>
-      <c r="D115" s="166"/>
+      <c r="C115" s="170"/>
+      <c r="D115" s="170"/>
       <c r="E115" s="23"/>
       <c r="F115" s="23"/>
       <c r="G115" s="39"/>
@@ -5536,8 +5536,8 @@
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="39"/>
       <c r="B116" s="23"/>
-      <c r="C116" s="166"/>
-      <c r="D116" s="166"/>
+      <c r="C116" s="170"/>
+      <c r="D116" s="170"/>
       <c r="E116" s="23"/>
       <c r="F116" s="23"/>
       <c r="G116" s="39"/>
@@ -5550,8 +5550,8 @@
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="39"/>
       <c r="B117" s="23"/>
-      <c r="C117" s="166"/>
-      <c r="D117" s="166"/>
+      <c r="C117" s="170"/>
+      <c r="D117" s="170"/>
       <c r="E117" s="23"/>
       <c r="F117" s="23"/>
       <c r="G117" s="39"/>
@@ -5564,8 +5564,8 @@
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="39"/>
       <c r="B118" s="23"/>
-      <c r="C118" s="166"/>
-      <c r="D118" s="166"/>
+      <c r="C118" s="170"/>
+      <c r="D118" s="170"/>
       <c r="E118" s="23"/>
       <c r="F118" s="23"/>
       <c r="G118" s="39"/>
@@ -5578,8 +5578,8 @@
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="39"/>
       <c r="B119" s="23"/>
-      <c r="C119" s="166"/>
-      <c r="D119" s="166"/>
+      <c r="C119" s="170"/>
+      <c r="D119" s="170"/>
       <c r="E119" s="23"/>
       <c r="F119" s="23"/>
       <c r="G119" s="39"/>
@@ -5592,8 +5592,8 @@
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="39"/>
       <c r="B120" s="23"/>
-      <c r="C120" s="166"/>
-      <c r="D120" s="166"/>
+      <c r="C120" s="170"/>
+      <c r="D120" s="170"/>
       <c r="E120" s="23"/>
       <c r="F120" s="23"/>
       <c r="G120" s="39"/>
@@ -5606,8 +5606,8 @@
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="39"/>
       <c r="B121" s="23"/>
-      <c r="C121" s="166"/>
-      <c r="D121" s="166"/>
+      <c r="C121" s="170"/>
+      <c r="D121" s="170"/>
       <c r="E121" s="23"/>
       <c r="F121" s="23"/>
       <c r="G121" s="39"/>
@@ -5620,8 +5620,8 @@
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="39"/>
       <c r="B122" s="23"/>
-      <c r="C122" s="166"/>
-      <c r="D122" s="166"/>
+      <c r="C122" s="170"/>
+      <c r="D122" s="170"/>
       <c r="E122" s="23"/>
       <c r="F122" s="23"/>
       <c r="G122" s="39"/>
@@ -5634,8 +5634,8 @@
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="39"/>
       <c r="B123" s="23"/>
-      <c r="C123" s="166"/>
-      <c r="D123" s="166"/>
+      <c r="C123" s="170"/>
+      <c r="D123" s="170"/>
       <c r="E123" s="23"/>
       <c r="F123" s="23"/>
       <c r="G123" s="39"/>
@@ -5648,8 +5648,8 @@
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="39"/>
       <c r="B124" s="23"/>
-      <c r="C124" s="166"/>
-      <c r="D124" s="166"/>
+      <c r="C124" s="170"/>
+      <c r="D124" s="170"/>
       <c r="E124" s="23"/>
       <c r="F124" s="23"/>
       <c r="G124" s="39"/>
@@ -5662,8 +5662,8 @@
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="39"/>
       <c r="B125" s="23"/>
-      <c r="C125" s="166"/>
-      <c r="D125" s="166"/>
+      <c r="C125" s="170"/>
+      <c r="D125" s="170"/>
       <c r="E125" s="23"/>
       <c r="F125" s="23"/>
       <c r="G125" s="39"/>
@@ -5676,8 +5676,8 @@
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="39"/>
       <c r="B126" s="23"/>
-      <c r="C126" s="166"/>
-      <c r="D126" s="166"/>
+      <c r="C126" s="170"/>
+      <c r="D126" s="170"/>
       <c r="E126" s="23"/>
       <c r="F126" s="23"/>
       <c r="G126" s="39"/>
@@ -5690,8 +5690,8 @@
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="39"/>
       <c r="B127" s="23"/>
-      <c r="C127" s="166"/>
-      <c r="D127" s="166"/>
+      <c r="C127" s="170"/>
+      <c r="D127" s="170"/>
       <c r="E127" s="23"/>
       <c r="F127" s="23"/>
       <c r="G127" s="39"/>
@@ -5704,8 +5704,8 @@
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="39"/>
       <c r="B128" s="23"/>
-      <c r="C128" s="166"/>
-      <c r="D128" s="166"/>
+      <c r="C128" s="170"/>
+      <c r="D128" s="170"/>
       <c r="E128" s="23"/>
       <c r="F128" s="23"/>
       <c r="G128" s="39"/>
@@ -5718,8 +5718,8 @@
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="39"/>
       <c r="B129" s="23"/>
-      <c r="C129" s="166"/>
-      <c r="D129" s="166"/>
+      <c r="C129" s="170"/>
+      <c r="D129" s="170"/>
       <c r="E129" s="23"/>
       <c r="F129" s="23"/>
       <c r="G129" s="39"/>
@@ -5732,8 +5732,8 @@
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="39"/>
       <c r="B130" s="23"/>
-      <c r="C130" s="166"/>
-      <c r="D130" s="166"/>
+      <c r="C130" s="170"/>
+      <c r="D130" s="170"/>
       <c r="E130" s="23"/>
       <c r="F130" s="23"/>
       <c r="G130" s="39"/>
@@ -5746,8 +5746,8 @@
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="39"/>
       <c r="B131" s="23"/>
-      <c r="C131" s="166"/>
-      <c r="D131" s="166"/>
+      <c r="C131" s="170"/>
+      <c r="D131" s="170"/>
       <c r="E131" s="23"/>
       <c r="F131" s="23"/>
       <c r="G131" s="39"/>
@@ -5760,8 +5760,8 @@
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="39"/>
       <c r="B132" s="23"/>
-      <c r="C132" s="166"/>
-      <c r="D132" s="166"/>
+      <c r="C132" s="170"/>
+      <c r="D132" s="170"/>
       <c r="E132" s="23"/>
       <c r="F132" s="23"/>
       <c r="G132" s="39"/>
@@ -5774,8 +5774,8 @@
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="39"/>
       <c r="B133" s="23"/>
-      <c r="C133" s="166"/>
-      <c r="D133" s="166"/>
+      <c r="C133" s="170"/>
+      <c r="D133" s="170"/>
       <c r="E133" s="23"/>
       <c r="F133" s="23"/>
       <c r="G133" s="39"/>
@@ -5788,8 +5788,8 @@
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="39"/>
       <c r="B134" s="23"/>
-      <c r="C134" s="166"/>
-      <c r="D134" s="166"/>
+      <c r="C134" s="170"/>
+      <c r="D134" s="170"/>
       <c r="E134" s="23"/>
       <c r="F134" s="23"/>
       <c r="G134" s="39"/>
@@ -5802,8 +5802,8 @@
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="39"/>
       <c r="B135" s="23"/>
-      <c r="C135" s="166"/>
-      <c r="D135" s="166"/>
+      <c r="C135" s="170"/>
+      <c r="D135" s="170"/>
       <c r="E135" s="23"/>
       <c r="F135" s="23"/>
       <c r="G135" s="39"/>
@@ -5816,8 +5816,8 @@
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="39"/>
       <c r="B136" s="23"/>
-      <c r="C136" s="166"/>
-      <c r="D136" s="166"/>
+      <c r="C136" s="170"/>
+      <c r="D136" s="170"/>
       <c r="E136" s="23"/>
       <c r="F136" s="23"/>
       <c r="G136" s="39"/>
@@ -5830,8 +5830,8 @@
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
       <c r="B137" s="23"/>
-      <c r="C137" s="166"/>
-      <c r="D137" s="166"/>
+      <c r="C137" s="170"/>
+      <c r="D137" s="170"/>
       <c r="E137" s="23"/>
       <c r="F137" s="23"/>
       <c r="G137" s="39"/>
@@ -5844,8 +5844,8 @@
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="39"/>
       <c r="B138" s="23"/>
-      <c r="C138" s="166"/>
-      <c r="D138" s="166"/>
+      <c r="C138" s="170"/>
+      <c r="D138" s="170"/>
       <c r="E138" s="23"/>
       <c r="F138" s="23"/>
       <c r="G138" s="39"/>
@@ -5858,8 +5858,8 @@
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="39"/>
       <c r="B139" s="23"/>
-      <c r="C139" s="166"/>
-      <c r="D139" s="166"/>
+      <c r="C139" s="170"/>
+      <c r="D139" s="170"/>
       <c r="E139" s="23"/>
       <c r="F139" s="23"/>
       <c r="G139" s="39"/>
@@ -5872,8 +5872,8 @@
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="39"/>
       <c r="B140" s="23"/>
-      <c r="C140" s="166"/>
-      <c r="D140" s="166"/>
+      <c r="C140" s="170"/>
+      <c r="D140" s="170"/>
       <c r="E140" s="23"/>
       <c r="F140" s="23"/>
       <c r="G140" s="39"/>
@@ -5886,8 +5886,8 @@
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="39"/>
       <c r="B141" s="23"/>
-      <c r="C141" s="166"/>
-      <c r="D141" s="166"/>
+      <c r="C141" s="170"/>
+      <c r="D141" s="170"/>
       <c r="E141" s="23"/>
       <c r="F141" s="23"/>
       <c r="G141" s="39"/>
@@ -5900,8 +5900,8 @@
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="39"/>
       <c r="B142" s="23"/>
-      <c r="C142" s="166"/>
-      <c r="D142" s="166"/>
+      <c r="C142" s="170"/>
+      <c r="D142" s="170"/>
       <c r="E142" s="23"/>
       <c r="F142" s="23"/>
       <c r="G142" s="39"/>
@@ -5914,8 +5914,8 @@
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="39"/>
       <c r="B143" s="23"/>
-      <c r="C143" s="166"/>
-      <c r="D143" s="166"/>
+      <c r="C143" s="170"/>
+      <c r="D143" s="170"/>
       <c r="E143" s="23"/>
       <c r="F143" s="23"/>
       <c r="G143" s="39"/>
@@ -5928,8 +5928,8 @@
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="39"/>
       <c r="B144" s="23"/>
-      <c r="C144" s="166"/>
-      <c r="D144" s="166"/>
+      <c r="C144" s="170"/>
+      <c r="D144" s="170"/>
       <c r="E144" s="23"/>
       <c r="F144" s="23"/>
       <c r="G144" s="39"/>
@@ -5942,8 +5942,8 @@
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="39"/>
       <c r="B145" s="23"/>
-      <c r="C145" s="166"/>
-      <c r="D145" s="166"/>
+      <c r="C145" s="170"/>
+      <c r="D145" s="170"/>
       <c r="E145" s="23"/>
       <c r="F145" s="23"/>
       <c r="G145" s="39"/>
@@ -5956,8 +5956,8 @@
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="39"/>
       <c r="B146" s="23"/>
-      <c r="C146" s="166"/>
-      <c r="D146" s="166"/>
+      <c r="C146" s="170"/>
+      <c r="D146" s="170"/>
       <c r="E146" s="23"/>
       <c r="F146" s="23"/>
       <c r="G146" s="39"/>
@@ -5970,8 +5970,8 @@
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="39"/>
       <c r="B147" s="23"/>
-      <c r="C147" s="166"/>
-      <c r="D147" s="166"/>
+      <c r="C147" s="170"/>
+      <c r="D147" s="170"/>
       <c r="E147" s="23"/>
       <c r="F147" s="23"/>
       <c r="G147" s="39"/>
@@ -5984,8 +5984,8 @@
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="39"/>
       <c r="B148" s="23"/>
-      <c r="C148" s="166"/>
-      <c r="D148" s="166"/>
+      <c r="C148" s="170"/>
+      <c r="D148" s="170"/>
       <c r="E148" s="23"/>
       <c r="F148" s="23"/>
       <c r="G148" s="39"/>
@@ -5998,8 +5998,8 @@
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="39"/>
       <c r="B149" s="23"/>
-      <c r="C149" s="166"/>
-      <c r="D149" s="166"/>
+      <c r="C149" s="170"/>
+      <c r="D149" s="170"/>
       <c r="E149" s="23"/>
       <c r="F149" s="23"/>
       <c r="G149" s="39"/>
@@ -6012,8 +6012,8 @@
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="39"/>
       <c r="B150" s="23"/>
-      <c r="C150" s="166"/>
-      <c r="D150" s="166"/>
+      <c r="C150" s="170"/>
+      <c r="D150" s="170"/>
       <c r="E150" s="23"/>
       <c r="F150" s="23"/>
       <c r="G150" s="39"/>
@@ -6026,8 +6026,8 @@
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="39"/>
       <c r="B151" s="23"/>
-      <c r="C151" s="166"/>
-      <c r="D151" s="166"/>
+      <c r="C151" s="170"/>
+      <c r="D151" s="170"/>
       <c r="E151" s="23"/>
       <c r="F151" s="23"/>
       <c r="G151" s="39"/>
@@ -6040,8 +6040,8 @@
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="39"/>
       <c r="B152" s="23"/>
-      <c r="C152" s="166"/>
-      <c r="D152" s="166"/>
+      <c r="C152" s="170"/>
+      <c r="D152" s="170"/>
       <c r="E152" s="23"/>
       <c r="F152" s="23"/>
       <c r="G152" s="39"/>
@@ -6054,8 +6054,8 @@
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="39"/>
       <c r="B153" s="23"/>
-      <c r="C153" s="166"/>
-      <c r="D153" s="166"/>
+      <c r="C153" s="170"/>
+      <c r="D153" s="170"/>
       <c r="E153" s="23"/>
       <c r="F153" s="23"/>
       <c r="G153" s="39"/>
@@ -6068,8 +6068,8 @@
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="39"/>
       <c r="B154" s="23"/>
-      <c r="C154" s="166"/>
-      <c r="D154" s="166"/>
+      <c r="C154" s="170"/>
+      <c r="D154" s="170"/>
       <c r="E154" s="23"/>
       <c r="F154" s="23"/>
       <c r="G154" s="39"/>
@@ -6082,8 +6082,8 @@
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="39"/>
       <c r="B155" s="23"/>
-      <c r="C155" s="166"/>
-      <c r="D155" s="166"/>
+      <c r="C155" s="170"/>
+      <c r="D155" s="170"/>
       <c r="E155" s="23"/>
       <c r="F155" s="23"/>
       <c r="G155" s="39"/>
@@ -6096,8 +6096,8 @@
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="39"/>
       <c r="B156" s="23"/>
-      <c r="C156" s="166"/>
-      <c r="D156" s="166"/>
+      <c r="C156" s="170"/>
+      <c r="D156" s="170"/>
       <c r="E156" s="23"/>
       <c r="F156" s="23"/>
       <c r="G156" s="39"/>
@@ -6110,8 +6110,8 @@
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="39"/>
       <c r="B157" s="23"/>
-      <c r="C157" s="166"/>
-      <c r="D157" s="166"/>
+      <c r="C157" s="170"/>
+      <c r="D157" s="170"/>
       <c r="E157" s="23"/>
       <c r="F157" s="23"/>
       <c r="G157" s="39"/>
@@ -6124,8 +6124,8 @@
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="39"/>
       <c r="B158" s="23"/>
-      <c r="C158" s="166"/>
-      <c r="D158" s="166"/>
+      <c r="C158" s="170"/>
+      <c r="D158" s="170"/>
       <c r="E158" s="23"/>
       <c r="F158" s="23"/>
       <c r="G158" s="39"/>
@@ -6138,8 +6138,8 @@
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="39"/>
       <c r="B159" s="23"/>
-      <c r="C159" s="166"/>
-      <c r="D159" s="166"/>
+      <c r="C159" s="170"/>
+      <c r="D159" s="170"/>
       <c r="E159" s="23"/>
       <c r="F159" s="23"/>
       <c r="G159" s="39"/>
@@ -6152,8 +6152,8 @@
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="39"/>
       <c r="B160" s="23"/>
-      <c r="C160" s="166"/>
-      <c r="D160" s="166"/>
+      <c r="C160" s="170"/>
+      <c r="D160" s="170"/>
       <c r="E160" s="23"/>
       <c r="F160" s="23"/>
       <c r="G160" s="39"/>
@@ -6166,8 +6166,8 @@
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="39"/>
       <c r="B161" s="23"/>
-      <c r="C161" s="166"/>
-      <c r="D161" s="166"/>
+      <c r="C161" s="170"/>
+      <c r="D161" s="170"/>
       <c r="E161" s="23"/>
       <c r="F161" s="23"/>
       <c r="G161" s="39"/>
@@ -6304,22 +6304,22 @@
         <v>161</v>
       </c>
       <c r="B1" s="91" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C1" s="91" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D1" s="91" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E1" s="91" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F1" s="91" t="s">
         <v>101</v>
       </c>
       <c r="G1" s="91" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H1" s="91" t="s">
         <v>268</v>
@@ -6852,7 +6852,7 @@
         <v>180</v>
       </c>
       <c r="E3" s="165" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -6880,7 +6880,7 @@
         <v>180</v>
       </c>
       <c r="E4" s="165" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F4" s="59"/>
       <c r="G4" s="59"/>
@@ -6948,7 +6948,7 @@
         <v>180</v>
       </c>
       <c r="E7" s="165" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G7" t="s">
         <v>163</v>
@@ -6968,7 +6968,7 @@
         <v>180</v>
       </c>
       <c r="E8" s="165" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G8" t="s">
         <v>164</v>
@@ -7508,7 +7508,7 @@
         <v>180</v>
       </c>
       <c r="E35" s="165" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G35" t="s">
         <v>173</v>
@@ -7528,7 +7528,7 @@
         <v>180</v>
       </c>
       <c r="E36" s="165" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G36" t="s">
         <v>173</v>
@@ -7588,7 +7588,7 @@
         <v>178</v>
       </c>
       <c r="E39" s="165" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G39" t="s">
         <v>174</v>
@@ -7608,7 +7608,7 @@
         <v>178</v>
       </c>
       <c r="E40" s="165" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G40" t="s">
         <v>173</v>
@@ -7628,7 +7628,7 @@
         <v>180</v>
       </c>
       <c r="E41" s="165" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G41" t="s">
         <v>173</v>
@@ -7648,7 +7648,7 @@
         <v>180</v>
       </c>
       <c r="E42" s="165" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G42" t="s">
         <v>173</v>
@@ -7708,7 +7708,7 @@
         <v>180</v>
       </c>
       <c r="E45" s="165" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G45" t="s">
         <v>175</v>
@@ -7728,7 +7728,7 @@
         <v>180</v>
       </c>
       <c r="E46" s="165" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G46" t="s">
         <v>173</v>
@@ -7788,7 +7788,7 @@
         <v>180</v>
       </c>
       <c r="E49" s="165" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G49" t="s">
         <v>176</v>
@@ -7808,7 +7808,7 @@
         <v>180</v>
       </c>
       <c r="E50" s="165" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G50" t="s">
         <v>176</v>
@@ -11288,7 +11288,7 @@
   <dimension ref="A1:Y166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11308,119 +11308,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="193" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="196" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="199" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="197" t="s">
-        <v>454</v>
-      </c>
-      <c r="E1" s="184" t="s">
+      <c r="D1" s="202" t="s">
+        <v>451</v>
+      </c>
+      <c r="E1" s="189" t="s">
         <v>428</v>
       </c>
-      <c r="F1" s="184" t="s">
+      <c r="F1" s="189" t="s">
         <v>429</v>
       </c>
-      <c r="G1" s="200" t="s">
+      <c r="G1" s="206" t="s">
         <v>430</v>
       </c>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="201"/>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="203" t="s">
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="206"/>
+      <c r="O1" s="207"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="209" t="s">
         <v>431</v>
       </c>
-      <c r="R1" s="204"/>
-      <c r="S1" s="204"/>
-      <c r="T1" s="204"/>
-      <c r="U1" s="204"/>
-      <c r="V1" s="204"/>
-      <c r="W1" s="204"/>
-      <c r="X1" s="204"/>
-      <c r="Y1" s="204"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="210"/>
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="210"/>
     </row>
     <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="189"/>
-      <c r="B2" s="192"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="205" t="s">
+      <c r="A2" s="194"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="211" t="s">
         <v>432</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="203" t="s">
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="209" t="s">
         <v>433</v>
       </c>
-      <c r="R2" s="204"/>
-      <c r="S2" s="204"/>
-      <c r="T2" s="204"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="207" t="s">
-        <v>455</v>
-      </c>
-      <c r="X2" s="207"/>
-      <c r="Y2" s="207"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="212" t="s">
+        <v>452</v>
+      </c>
+      <c r="X2" s="212"/>
+      <c r="Y2" s="212"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="189"/>
-      <c r="B3" s="192"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="208" t="s">
+      <c r="A3" s="194"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="213" t="s">
         <v>434</v>
       </c>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="210" t="s">
+      <c r="R3" s="214"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="215" t="s">
         <v>435</v>
       </c>
-      <c r="U3" s="211"/>
-      <c r="V3" s="208"/>
-      <c r="W3" s="207"/>
-      <c r="X3" s="207"/>
-      <c r="Y3" s="207"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="213"/>
+      <c r="W3" s="212"/>
+      <c r="X3" s="212"/>
+      <c r="Y3" s="212"/>
     </row>
     <row r="4" spans="1:25" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="189"/>
-      <c r="B4" s="192"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
+      <c r="A4" s="194"/>
+      <c r="B4" s="197"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
       <c r="G4" s="125" t="s">
         <v>436</v>
       </c>
@@ -11430,26 +11430,26 @@
       <c r="I4" s="125" t="s">
         <v>438</v>
       </c>
-      <c r="J4" s="212" t="s">
+      <c r="J4" s="217" t="s">
+        <v>504</v>
+      </c>
+      <c r="K4" s="217" t="s">
+        <v>505</v>
+      </c>
+      <c r="L4" s="217" t="s">
+        <v>506</v>
+      </c>
+      <c r="M4" s="217" t="s">
         <v>448</v>
       </c>
-      <c r="K4" s="212" t="s">
+      <c r="N4" s="217" t="s">
         <v>449</v>
       </c>
-      <c r="L4" s="212" t="s">
+      <c r="O4" s="217" t="s">
         <v>450</v>
       </c>
-      <c r="M4" s="212" t="s">
-        <v>451</v>
-      </c>
-      <c r="N4" s="212" t="s">
-        <v>452</v>
-      </c>
-      <c r="O4" s="212" t="s">
-        <v>453</v>
-      </c>
-      <c r="P4" s="206" t="s">
-        <v>459</v>
+      <c r="P4" s="187" t="s">
+        <v>456</v>
       </c>
       <c r="Q4" s="126" t="s">
         <v>439</v>
@@ -11469,23 +11469,23 @@
       <c r="V4" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="W4" s="183" t="s">
-        <v>456</v>
-      </c>
-      <c r="X4" s="183" t="s">
-        <v>457</v>
-      </c>
-      <c r="Y4" s="183" t="s">
-        <v>458</v>
+      <c r="W4" s="205" t="s">
+        <v>453</v>
+      </c>
+      <c r="X4" s="205" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y4" s="205" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="190"/>
-      <c r="B5" s="193"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
+      <c r="A5" s="195"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
       <c r="G5" s="128" t="s">
         <v>445</v>
       </c>
@@ -11495,13 +11495,13 @@
       <c r="I5" s="128" t="s">
         <v>447</v>
       </c>
-      <c r="J5" s="183"/>
-      <c r="K5" s="183"/>
-      <c r="L5" s="183"/>
-      <c r="M5" s="183"/>
-      <c r="N5" s="183"/>
-      <c r="O5" s="183"/>
-      <c r="P5" s="215"/>
+      <c r="J5" s="205"/>
+      <c r="K5" s="205"/>
+      <c r="L5" s="205"/>
+      <c r="M5" s="205"/>
+      <c r="N5" s="205"/>
+      <c r="O5" s="205"/>
+      <c r="P5" s="188"/>
       <c r="Q5" s="129" t="s">
         <v>445</v>
       </c>
@@ -11520,9 +11520,9 @@
       <c r="V5" s="131" t="s">
         <v>447</v>
       </c>
-      <c r="W5" s="183"/>
-      <c r="X5" s="183"/>
-      <c r="Y5" s="183"/>
+      <c r="W5" s="205"/>
+      <c r="X5" s="205"/>
+      <c r="Y5" s="205"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="120">
@@ -12001,7 +12001,7 @@
       </c>
       <c r="Y14" s="163"/>
     </row>
-    <row r="15" spans="1:25" s="149" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" s="149" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="142">
         <v>9</v>
       </c>
@@ -12015,8 +12015,8 @@
         <f>W15</f>
         <v>1</v>
       </c>
-      <c r="E15" s="216" t="s">
-        <v>507</v>
+      <c r="E15" s="168" t="s">
+        <v>508</v>
       </c>
       <c r="F15" s="136" t="s">
         <v>30</v>
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="136" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F16" s="136" t="s">
         <v>30</v>
@@ -12107,7 +12107,7 @@
       <c r="X16" s="145"/>
       <c r="Y16" s="144"/>
     </row>
-    <row r="17" spans="1:25" s="149" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" s="149" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="142">
         <v>11</v>
       </c>
@@ -12121,8 +12121,8 @@
         <f>X17</f>
         <v>1</v>
       </c>
-      <c r="E17" s="216" t="s">
-        <v>508</v>
+      <c r="E17" s="168" t="s">
+        <v>507</v>
       </c>
       <c r="F17" s="136" t="s">
         <v>30</v>
@@ -12177,7 +12177,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="136" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F18" s="136" t="s">
         <v>30</v>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="Y18" s="144"/>
     </row>
-    <row r="19" spans="1:25" s="149" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" s="149" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="142">
         <v>13</v>
       </c>
@@ -12227,7 +12227,7 @@
         <f>Y19</f>
         <v>1</v>
       </c>
-      <c r="E19" s="216" t="s">
+      <c r="E19" s="168" t="s">
         <v>509</v>
       </c>
       <c r="F19" s="136" t="s">
@@ -12283,7 +12283,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="136" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F20" s="136" t="s">
         <v>30</v>
@@ -12335,7 +12335,7 @@
       </c>
       <c r="E21" s="136"/>
       <c r="F21" s="136" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G21" s="144">
         <v>1</v>
@@ -12388,7 +12388,7 @@
       </c>
       <c r="E22" s="136"/>
       <c r="F22" s="136" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G22" s="144"/>
       <c r="H22" s="145"/>
@@ -12437,7 +12437,7 @@
       </c>
       <c r="E23" s="136"/>
       <c r="F23" s="136" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G23" s="144">
         <v>1</v>
@@ -12486,7 +12486,7 @@
       </c>
       <c r="E24" s="136"/>
       <c r="F24" s="136" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G24" s="144"/>
       <c r="H24" s="145"/>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="E25" s="136"/>
       <c r="F25" s="136" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G25" s="144">
         <v>1</v>
@@ -12582,7 +12582,7 @@
       </c>
       <c r="E26" s="136"/>
       <c r="F26" s="136" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G26" s="144"/>
       <c r="H26" s="145"/>
@@ -12629,7 +12629,7 @@
       </c>
       <c r="E27" s="136"/>
       <c r="F27" s="136" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G27" s="145"/>
       <c r="H27" s="144">
@@ -12678,7 +12678,7 @@
       </c>
       <c r="E28" s="136"/>
       <c r="F28" s="136" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G28" s="145"/>
       <c r="H28" s="144"/>
@@ -12725,7 +12725,7 @@
       </c>
       <c r="E29" s="136"/>
       <c r="F29" s="136" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G29" s="145"/>
       <c r="H29" s="144">
@@ -12753,7 +12753,7 @@
       <c r="V29" s="145"/>
       <c r="W29" s="145"/>
       <c r="X29" s="144">
-        <f t="shared" ref="X29:X31" si="3">IF((OR((AND(H29,P30)),(AND((NOT(P29)),(R29))),(AND((NOT(P29)),(U29))))=TRUE),1,0)</f>
+        <f>IF((OR((AND(H29,P30)),(AND((NOT(P29)),(R29))),(AND((NOT(P29)),(U29))))=TRUE),1,0)</f>
         <v>1</v>
       </c>
       <c r="Y29" s="144"/>
@@ -12774,7 +12774,7 @@
       </c>
       <c r="E30" s="136"/>
       <c r="F30" s="136" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G30" s="145"/>
       <c r="H30" s="144"/>
@@ -12821,7 +12821,7 @@
       </c>
       <c r="E31" s="136"/>
       <c r="F31" s="136" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G31" s="145"/>
       <c r="H31" s="144">
@@ -12849,7 +12849,7 @@
       <c r="V31" s="145"/>
       <c r="W31" s="145"/>
       <c r="X31" s="144">
-        <f t="shared" si="3"/>
+        <f>IF((OR((AND(H31,P32)),(AND((NOT(P31)),(R31))),(AND((NOT(P31)),(U31))))=TRUE),1,0)</f>
         <v>1</v>
       </c>
       <c r="Y31" s="144"/>
@@ -12870,7 +12870,7 @@
       </c>
       <c r="E32" s="136"/>
       <c r="F32" s="136" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G32" s="145"/>
       <c r="H32" s="144"/>
@@ -12917,7 +12917,7 @@
       </c>
       <c r="E33" s="136"/>
       <c r="F33" s="136" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G33" s="145"/>
       <c r="H33" s="145"/>
@@ -12961,12 +12961,12 @@
         <v>349</v>
       </c>
       <c r="D34" s="143">
-        <f t="shared" ref="D34:D40" si="4">Y34</f>
+        <f t="shared" ref="D34:D40" si="3">Y34</f>
         <v>0</v>
       </c>
       <c r="E34" s="136"/>
       <c r="F34" s="136" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G34" s="145"/>
       <c r="H34" s="145"/>
@@ -13008,12 +13008,12 @@
         <v>350</v>
       </c>
       <c r="D35" s="143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E35" s="136"/>
       <c r="F35" s="136" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G35" s="145"/>
       <c r="H35" s="145"/>
@@ -13042,7 +13042,7 @@
       <c r="W35" s="145"/>
       <c r="X35" s="144"/>
       <c r="Y35" s="144">
-        <f t="shared" ref="Y35" si="5">IF((OR((AND(I35,P36)),(AND((NOT(P35)),(S35))),(AND((NOT(P35)),(V35))))=TRUE),1,0)</f>
+        <f t="shared" ref="Y35" si="4">IF((OR((AND(I35,P36)),(AND((NOT(P35)),(S35))),(AND((NOT(P35)),(V35))))=TRUE),1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -13057,12 +13057,12 @@
         <v>351</v>
       </c>
       <c r="D36" s="143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E36" s="136"/>
       <c r="F36" s="136" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G36" s="145"/>
       <c r="H36" s="145"/>
@@ -13104,12 +13104,12 @@
         <v>352</v>
       </c>
       <c r="D37" s="143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E37" s="136"/>
       <c r="F37" s="136" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G37" s="145"/>
       <c r="H37" s="145"/>
@@ -13153,12 +13153,12 @@
         <v>353</v>
       </c>
       <c r="D38" s="143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E38" s="136"/>
       <c r="F38" s="136" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G38" s="145"/>
       <c r="H38" s="145"/>
@@ -13200,12 +13200,12 @@
         <v>354</v>
       </c>
       <c r="D39" s="135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E39" s="79"/>
       <c r="F39" s="79" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G39" s="137"/>
       <c r="H39" s="137"/>
@@ -13251,12 +13251,12 @@
         <v>355</v>
       </c>
       <c r="D40" s="135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E40" s="79"/>
       <c r="F40" s="79" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G40" s="137"/>
       <c r="H40" s="137"/>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="E41" s="79"/>
       <c r="F41" s="79" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G41" s="137"/>
       <c r="H41" s="137"/>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="E42" s="79"/>
       <c r="F42" s="79" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G42" s="137"/>
       <c r="H42" s="137"/>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="E43" s="79"/>
       <c r="F43" s="79" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G43" s="137"/>
       <c r="H43" s="137"/>
@@ -13456,7 +13456,7 @@
       </c>
       <c r="E44" s="79"/>
       <c r="F44" s="79" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G44" s="137"/>
       <c r="H44" s="137"/>
@@ -13954,7 +13954,7 @@
         <f>Y54</f>
         <v>0</v>
       </c>
-      <c r="E54" s="217"/>
+      <c r="E54" s="169"/>
       <c r="F54" s="79" t="s">
         <v>81</v>
       </c>
@@ -14855,13 +14855,13 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="W4:W5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="F1:F5"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:B5"/>
     <mergeCell ref="C1:C5"/>
     <mergeCell ref="D1:D5"/>
     <mergeCell ref="E1:E5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14933,7 +14933,7 @@
   <sheetData>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -15066,7 +15066,7 @@
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="2" t="s">
@@ -15296,7 +15296,7 @@
       <c r="AC9" s="106"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
@@ -15362,7 +15362,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="109"/>
       <c r="AE10" s="109" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AF10" s="109"/>
       <c r="AG10" s="109"/>
@@ -15815,7 +15815,7 @@
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B18" s="30" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="30" t="s">
@@ -15909,7 +15909,7 @@
       <c r="M19" s="13"/>
       <c r="O19" s="13"/>
       <c r="Q19" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="R19" s="35"/>
       <c r="S19" s="35"/>
@@ -15971,7 +15971,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="109" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
@@ -16033,7 +16033,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="109" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
@@ -16049,7 +16049,7 @@
       <c r="AC21" s="106"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -16099,7 +16099,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="109" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
@@ -16115,7 +16115,7 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="109"/>
       <c r="AE22" s="109" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AF22" s="109"/>
       <c r="AG22" s="109"/>
@@ -16165,7 +16165,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="109" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="R23" s="36"/>
       <c r="S23" s="36"/>
@@ -16181,7 +16181,7 @@
       <c r="AC23" s="109"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="109" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AF23" s="109"/>
       <c r="AG23" s="109"/>
@@ -16231,7 +16231,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="109" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="R24" s="36"/>
       <c r="S24" s="36"/>
@@ -16247,7 +16247,7 @@
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="109" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AF24" s="109"/>
       <c r="AG24" s="109"/>
@@ -16298,7 +16298,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="109" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="R25" s="36"/>
       <c r="S25" s="36"/>
@@ -16363,7 +16363,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="R26" s="35"/>
       <c r="S26" s="35"/>
@@ -17220,8 +17220,8 @@
     <row r="47" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="V47" s="24"/>
-      <c r="W47" s="166"/>
-      <c r="X47" s="166"/>
+      <c r="W47" s="170"/>
+      <c r="X47" s="170"/>
       <c r="Y47" s="26"/>
       <c r="Z47" s="26"/>
       <c r="AA47" s="26"/>
@@ -17260,8 +17260,8 @@
     <row r="48" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="V48" s="24"/>
-      <c r="W48" s="166"/>
-      <c r="X48" s="166"/>
+      <c r="W48" s="170"/>
+      <c r="X48" s="170"/>
       <c r="Y48" s="26"/>
       <c r="Z48" s="26"/>
       <c r="AA48" s="26"/>
@@ -17300,8 +17300,8 @@
     <row r="49" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="V49" s="24"/>
-      <c r="W49" s="166"/>
-      <c r="X49" s="166"/>
+      <c r="W49" s="170"/>
+      <c r="X49" s="170"/>
       <c r="Y49" s="26"/>
       <c r="Z49" s="26"/>
       <c r="AA49" s="26"/>
@@ -17342,8 +17342,8 @@
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="V50" s="24"/>
-      <c r="W50" s="166"/>
-      <c r="X50" s="166"/>
+      <c r="W50" s="170"/>
+      <c r="X50" s="170"/>
       <c r="Y50" s="26"/>
       <c r="Z50" s="26"/>
       <c r="AA50" s="26"/>
@@ -17382,8 +17382,8 @@
     <row r="51" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="V51" s="24"/>
-      <c r="W51" s="166"/>
-      <c r="X51" s="166"/>
+      <c r="W51" s="170"/>
+      <c r="X51" s="170"/>
       <c r="Y51" s="26"/>
       <c r="Z51" s="26"/>
       <c r="AA51" s="26"/>
@@ -17422,8 +17422,8 @@
     <row r="52" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="V52" s="24"/>
-      <c r="W52" s="166"/>
-      <c r="X52" s="166"/>
+      <c r="W52" s="170"/>
+      <c r="X52" s="170"/>
       <c r="Y52" s="26"/>
       <c r="Z52" s="26"/>
       <c r="AA52" s="26"/>
@@ -17993,19 +17993,19 @@
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="S96" s="9"/>
-      <c r="X96" s="166"/>
-      <c r="Y96" s="166"/>
-      <c r="Z96" s="167"/>
-      <c r="AA96" s="167"/>
-      <c r="AB96" s="167"/>
-      <c r="AC96" s="170"/>
-      <c r="AD96" s="171"/>
-      <c r="AE96" s="171"/>
-      <c r="AF96" s="171"/>
-      <c r="AG96" s="171"/>
-      <c r="AH96" s="171"/>
-      <c r="AI96" s="171"/>
-      <c r="AJ96" s="171"/>
+      <c r="X96" s="170"/>
+      <c r="Y96" s="170"/>
+      <c r="Z96" s="171"/>
+      <c r="AA96" s="171"/>
+      <c r="AB96" s="171"/>
+      <c r="AC96" s="174"/>
+      <c r="AD96" s="175"/>
+      <c r="AE96" s="175"/>
+      <c r="AF96" s="175"/>
+      <c r="AG96" s="175"/>
+      <c r="AH96" s="175"/>
+      <c r="AI96" s="175"/>
+      <c r="AJ96" s="175"/>
     </row>
     <row r="97" spans="2:35" x14ac:dyDescent="0.2">
       <c r="S97" s="4"/>
@@ -18407,19 +18407,19 @@
     </row>
     <row r="123" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
-      <c r="B123" s="166"/>
-      <c r="C123" s="166"/>
-      <c r="D123" s="167"/>
-      <c r="E123" s="167"/>
-      <c r="F123" s="167"/>
-      <c r="G123" s="170"/>
-      <c r="H123" s="170"/>
-      <c r="I123" s="170"/>
-      <c r="J123" s="170"/>
-      <c r="K123" s="170"/>
-      <c r="L123" s="170"/>
-      <c r="M123" s="170"/>
-      <c r="N123" s="170"/>
+      <c r="B123" s="170"/>
+      <c r="C123" s="170"/>
+      <c r="D123" s="171"/>
+      <c r="E123" s="171"/>
+      <c r="F123" s="171"/>
+      <c r="G123" s="174"/>
+      <c r="H123" s="174"/>
+      <c r="I123" s="174"/>
+      <c r="J123" s="174"/>
+      <c r="K123" s="174"/>
+      <c r="L123" s="174"/>
+      <c r="M123" s="174"/>
+      <c r="N123" s="174"/>
       <c r="O123" s="17"/>
       <c r="P123" s="4"/>
       <c r="S123" s="9"/>
@@ -18429,19 +18429,19 @@
     </row>
     <row r="124" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
-      <c r="B124" s="166"/>
-      <c r="C124" s="166"/>
-      <c r="D124" s="167"/>
-      <c r="E124" s="167"/>
-      <c r="F124" s="167"/>
-      <c r="G124" s="170"/>
-      <c r="H124" s="170"/>
-      <c r="I124" s="170"/>
-      <c r="J124" s="170"/>
-      <c r="K124" s="170"/>
-      <c r="L124" s="170"/>
-      <c r="M124" s="170"/>
-      <c r="N124" s="170"/>
+      <c r="B124" s="170"/>
+      <c r="C124" s="170"/>
+      <c r="D124" s="171"/>
+      <c r="E124" s="171"/>
+      <c r="F124" s="171"/>
+      <c r="G124" s="174"/>
+      <c r="H124" s="174"/>
+      <c r="I124" s="174"/>
+      <c r="J124" s="174"/>
+      <c r="K124" s="174"/>
+      <c r="L124" s="174"/>
+      <c r="M124" s="174"/>
+      <c r="N124" s="174"/>
       <c r="O124" s="18"/>
       <c r="P124" s="4"/>
       <c r="AG124" s="4"/>
@@ -18450,19 +18450,19 @@
     </row>
     <row r="125" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
-      <c r="B125" s="166"/>
-      <c r="C125" s="166"/>
-      <c r="D125" s="167"/>
-      <c r="E125" s="167"/>
-      <c r="F125" s="167"/>
-      <c r="G125" s="170"/>
-      <c r="H125" s="170"/>
-      <c r="I125" s="170"/>
-      <c r="J125" s="170"/>
-      <c r="K125" s="170"/>
-      <c r="L125" s="170"/>
-      <c r="M125" s="170"/>
-      <c r="N125" s="170"/>
+      <c r="B125" s="170"/>
+      <c r="C125" s="170"/>
+      <c r="D125" s="171"/>
+      <c r="E125" s="171"/>
+      <c r="F125" s="171"/>
+      <c r="G125" s="174"/>
+      <c r="H125" s="174"/>
+      <c r="I125" s="174"/>
+      <c r="J125" s="174"/>
+      <c r="K125" s="174"/>
+      <c r="L125" s="174"/>
+      <c r="M125" s="174"/>
+      <c r="N125" s="174"/>
       <c r="O125" s="18"/>
       <c r="P125" s="4"/>
       <c r="AG125" s="4"/>
@@ -18471,291 +18471,291 @@
     </row>
     <row r="126" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
-      <c r="B126" s="166"/>
-      <c r="C126" s="166"/>
-      <c r="D126" s="167"/>
-      <c r="E126" s="167"/>
-      <c r="F126" s="167"/>
-      <c r="G126" s="170"/>
-      <c r="H126" s="170"/>
-      <c r="I126" s="170"/>
-      <c r="J126" s="170"/>
-      <c r="K126" s="170"/>
-      <c r="L126" s="170"/>
-      <c r="M126" s="170"/>
-      <c r="N126" s="170"/>
+      <c r="B126" s="170"/>
+      <c r="C126" s="170"/>
+      <c r="D126" s="171"/>
+      <c r="E126" s="171"/>
+      <c r="F126" s="171"/>
+      <c r="G126" s="174"/>
+      <c r="H126" s="174"/>
+      <c r="I126" s="174"/>
+      <c r="J126" s="174"/>
+      <c r="K126" s="174"/>
+      <c r="L126" s="174"/>
+      <c r="M126" s="174"/>
+      <c r="N126" s="174"/>
       <c r="O126" s="18"/>
       <c r="P126" s="4"/>
     </row>
     <row r="127" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
-      <c r="B127" s="166"/>
-      <c r="C127" s="166"/>
-      <c r="D127" s="167"/>
-      <c r="E127" s="167"/>
-      <c r="F127" s="167"/>
-      <c r="G127" s="170"/>
-      <c r="H127" s="170"/>
-      <c r="I127" s="170"/>
-      <c r="J127" s="170"/>
-      <c r="K127" s="170"/>
-      <c r="L127" s="170"/>
-      <c r="M127" s="170"/>
-      <c r="N127" s="170"/>
+      <c r="B127" s="170"/>
+      <c r="C127" s="170"/>
+      <c r="D127" s="171"/>
+      <c r="E127" s="171"/>
+      <c r="F127" s="171"/>
+      <c r="G127" s="174"/>
+      <c r="H127" s="174"/>
+      <c r="I127" s="174"/>
+      <c r="J127" s="174"/>
+      <c r="K127" s="174"/>
+      <c r="L127" s="174"/>
+      <c r="M127" s="174"/>
+      <c r="N127" s="174"/>
       <c r="O127" s="19"/>
       <c r="P127" s="4"/>
     </row>
     <row r="128" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="166"/>
-      <c r="C128" s="166"/>
-      <c r="D128" s="167"/>
-      <c r="E128" s="167"/>
-      <c r="F128" s="167"/>
-      <c r="G128" s="170"/>
-      <c r="H128" s="170"/>
-      <c r="I128" s="170"/>
-      <c r="J128" s="170"/>
-      <c r="K128" s="170"/>
-      <c r="L128" s="170"/>
-      <c r="M128" s="170"/>
-      <c r="N128" s="170"/>
+      <c r="B128" s="170"/>
+      <c r="C128" s="170"/>
+      <c r="D128" s="171"/>
+      <c r="E128" s="171"/>
+      <c r="F128" s="171"/>
+      <c r="G128" s="174"/>
+      <c r="H128" s="174"/>
+      <c r="I128" s="174"/>
+      <c r="J128" s="174"/>
+      <c r="K128" s="174"/>
+      <c r="L128" s="174"/>
+      <c r="M128" s="174"/>
+      <c r="N128" s="174"/>
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
     <row r="129" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
-      <c r="B129" s="166"/>
-      <c r="C129" s="166"/>
-      <c r="D129" s="167"/>
-      <c r="E129" s="167"/>
-      <c r="F129" s="167"/>
-      <c r="G129" s="168"/>
-      <c r="H129" s="168"/>
-      <c r="I129" s="168"/>
-      <c r="J129" s="168"/>
-      <c r="K129" s="168"/>
-      <c r="L129" s="168"/>
-      <c r="M129" s="168"/>
-      <c r="N129" s="168"/>
+      <c r="B129" s="170"/>
+      <c r="C129" s="170"/>
+      <c r="D129" s="171"/>
+      <c r="E129" s="171"/>
+      <c r="F129" s="171"/>
+      <c r="G129" s="172"/>
+      <c r="H129" s="172"/>
+      <c r="I129" s="172"/>
+      <c r="J129" s="172"/>
+      <c r="K129" s="172"/>
+      <c r="L129" s="172"/>
+      <c r="M129" s="172"/>
+      <c r="N129" s="172"/>
       <c r="O129" s="4"/>
       <c r="P129" s="4"/>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
-      <c r="B130" s="166"/>
-      <c r="C130" s="166"/>
-      <c r="D130" s="167"/>
-      <c r="E130" s="167"/>
-      <c r="F130" s="167"/>
-      <c r="G130" s="169"/>
-      <c r="H130" s="169"/>
-      <c r="I130" s="169"/>
-      <c r="J130" s="169"/>
-      <c r="K130" s="169"/>
-      <c r="L130" s="169"/>
-      <c r="M130" s="169"/>
-      <c r="N130" s="169"/>
+      <c r="B130" s="170"/>
+      <c r="C130" s="170"/>
+      <c r="D130" s="171"/>
+      <c r="E130" s="171"/>
+      <c r="F130" s="171"/>
+      <c r="G130" s="173"/>
+      <c r="H130" s="173"/>
+      <c r="I130" s="173"/>
+      <c r="J130" s="173"/>
+      <c r="K130" s="173"/>
+      <c r="L130" s="173"/>
+      <c r="M130" s="173"/>
+      <c r="N130" s="173"/>
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
-      <c r="B131" s="166"/>
-      <c r="C131" s="166"/>
-      <c r="D131" s="167"/>
-      <c r="E131" s="167"/>
-      <c r="F131" s="167"/>
-      <c r="G131" s="169"/>
-      <c r="H131" s="169"/>
-      <c r="I131" s="169"/>
-      <c r="J131" s="169"/>
-      <c r="K131" s="169"/>
-      <c r="L131" s="169"/>
-      <c r="M131" s="169"/>
-      <c r="N131" s="169"/>
+      <c r="B131" s="170"/>
+      <c r="C131" s="170"/>
+      <c r="D131" s="171"/>
+      <c r="E131" s="171"/>
+      <c r="F131" s="171"/>
+      <c r="G131" s="173"/>
+      <c r="H131" s="173"/>
+      <c r="I131" s="173"/>
+      <c r="J131" s="173"/>
+      <c r="K131" s="173"/>
+      <c r="L131" s="173"/>
+      <c r="M131" s="173"/>
+      <c r="N131" s="173"/>
       <c r="O131" s="4"/>
       <c r="P131" s="4"/>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
-      <c r="B132" s="166"/>
-      <c r="C132" s="166"/>
-      <c r="D132" s="167"/>
-      <c r="E132" s="167"/>
-      <c r="F132" s="167"/>
-      <c r="G132" s="168"/>
-      <c r="H132" s="168"/>
-      <c r="I132" s="168"/>
-      <c r="J132" s="168"/>
-      <c r="K132" s="168"/>
-      <c r="L132" s="168"/>
-      <c r="M132" s="168"/>
-      <c r="N132" s="168"/>
+      <c r="B132" s="170"/>
+      <c r="C132" s="170"/>
+      <c r="D132" s="171"/>
+      <c r="E132" s="171"/>
+      <c r="F132" s="171"/>
+      <c r="G132" s="172"/>
+      <c r="H132" s="172"/>
+      <c r="I132" s="172"/>
+      <c r="J132" s="172"/>
+      <c r="K132" s="172"/>
+      <c r="L132" s="172"/>
+      <c r="M132" s="172"/>
+      <c r="N132" s="172"/>
       <c r="O132" s="4"/>
       <c r="P132" s="4"/>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
-      <c r="B133" s="166"/>
-      <c r="C133" s="166"/>
-      <c r="D133" s="167"/>
-      <c r="E133" s="167"/>
-      <c r="F133" s="167"/>
-      <c r="G133" s="168"/>
-      <c r="H133" s="168"/>
-      <c r="I133" s="168"/>
-      <c r="J133" s="168"/>
-      <c r="K133" s="168"/>
-      <c r="L133" s="168"/>
-      <c r="M133" s="168"/>
-      <c r="N133" s="168"/>
+      <c r="B133" s="170"/>
+      <c r="C133" s="170"/>
+      <c r="D133" s="171"/>
+      <c r="E133" s="171"/>
+      <c r="F133" s="171"/>
+      <c r="G133" s="172"/>
+      <c r="H133" s="172"/>
+      <c r="I133" s="172"/>
+      <c r="J133" s="172"/>
+      <c r="K133" s="172"/>
+      <c r="L133" s="172"/>
+      <c r="M133" s="172"/>
+      <c r="N133" s="172"/>
       <c r="O133" s="4"/>
       <c r="P133" s="4"/>
       <c r="S133" s="9"/>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="166"/>
-      <c r="C134" s="166"/>
-      <c r="D134" s="167"/>
-      <c r="E134" s="167"/>
-      <c r="F134" s="167"/>
-      <c r="G134" s="168"/>
-      <c r="H134" s="168"/>
-      <c r="I134" s="168"/>
-      <c r="J134" s="168"/>
-      <c r="K134" s="168"/>
-      <c r="L134" s="168"/>
-      <c r="M134" s="168"/>
-      <c r="N134" s="168"/>
+      <c r="B134" s="170"/>
+      <c r="C134" s="170"/>
+      <c r="D134" s="171"/>
+      <c r="E134" s="171"/>
+      <c r="F134" s="171"/>
+      <c r="G134" s="172"/>
+      <c r="H134" s="172"/>
+      <c r="I134" s="172"/>
+      <c r="J134" s="172"/>
+      <c r="K134" s="172"/>
+      <c r="L134" s="172"/>
+      <c r="M134" s="172"/>
+      <c r="N134" s="172"/>
       <c r="O134" s="4"/>
       <c r="P134" s="4"/>
       <c r="S134" s="9"/>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
-      <c r="B135" s="166"/>
-      <c r="C135" s="166"/>
-      <c r="D135" s="167"/>
-      <c r="E135" s="167"/>
-      <c r="F135" s="167"/>
-      <c r="G135" s="168"/>
-      <c r="H135" s="168"/>
-      <c r="I135" s="168"/>
-      <c r="J135" s="168"/>
-      <c r="K135" s="168"/>
-      <c r="L135" s="168"/>
-      <c r="M135" s="168"/>
-      <c r="N135" s="168"/>
+      <c r="B135" s="170"/>
+      <c r="C135" s="170"/>
+      <c r="D135" s="171"/>
+      <c r="E135" s="171"/>
+      <c r="F135" s="171"/>
+      <c r="G135" s="172"/>
+      <c r="H135" s="172"/>
+      <c r="I135" s="172"/>
+      <c r="J135" s="172"/>
+      <c r="K135" s="172"/>
+      <c r="L135" s="172"/>
+      <c r="M135" s="172"/>
+      <c r="N135" s="172"/>
       <c r="O135" s="4"/>
       <c r="P135" s="4"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
-      <c r="B136" s="166"/>
-      <c r="C136" s="166"/>
-      <c r="D136" s="167"/>
-      <c r="E136" s="167"/>
-      <c r="F136" s="167"/>
-      <c r="G136" s="168"/>
-      <c r="H136" s="168"/>
-      <c r="I136" s="168"/>
-      <c r="J136" s="168"/>
-      <c r="K136" s="168"/>
-      <c r="L136" s="168"/>
-      <c r="M136" s="168"/>
-      <c r="N136" s="168"/>
+      <c r="B136" s="170"/>
+      <c r="C136" s="170"/>
+      <c r="D136" s="171"/>
+      <c r="E136" s="171"/>
+      <c r="F136" s="171"/>
+      <c r="G136" s="172"/>
+      <c r="H136" s="172"/>
+      <c r="I136" s="172"/>
+      <c r="J136" s="172"/>
+      <c r="K136" s="172"/>
+      <c r="L136" s="172"/>
+      <c r="M136" s="172"/>
+      <c r="N136" s="172"/>
       <c r="O136" s="4"/>
       <c r="P136" s="4"/>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
-      <c r="B137" s="166"/>
-      <c r="C137" s="166"/>
-      <c r="D137" s="167"/>
-      <c r="E137" s="167"/>
-      <c r="F137" s="167"/>
-      <c r="G137" s="168"/>
-      <c r="H137" s="168"/>
-      <c r="I137" s="168"/>
-      <c r="J137" s="168"/>
-      <c r="K137" s="168"/>
-      <c r="L137" s="168"/>
-      <c r="M137" s="168"/>
-      <c r="N137" s="168"/>
+      <c r="B137" s="170"/>
+      <c r="C137" s="170"/>
+      <c r="D137" s="171"/>
+      <c r="E137" s="171"/>
+      <c r="F137" s="171"/>
+      <c r="G137" s="172"/>
+      <c r="H137" s="172"/>
+      <c r="I137" s="172"/>
+      <c r="J137" s="172"/>
+      <c r="K137" s="172"/>
+      <c r="L137" s="172"/>
+      <c r="M137" s="172"/>
+      <c r="N137" s="172"/>
       <c r="O137" s="4"/>
       <c r="P137" s="4"/>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
-      <c r="B138" s="166"/>
-      <c r="C138" s="166"/>
-      <c r="D138" s="167"/>
-      <c r="E138" s="167"/>
-      <c r="F138" s="167"/>
-      <c r="G138" s="168"/>
-      <c r="H138" s="168"/>
-      <c r="I138" s="168"/>
-      <c r="J138" s="168"/>
-      <c r="K138" s="168"/>
-      <c r="L138" s="168"/>
-      <c r="M138" s="168"/>
-      <c r="N138" s="168"/>
+      <c r="B138" s="170"/>
+      <c r="C138" s="170"/>
+      <c r="D138" s="171"/>
+      <c r="E138" s="171"/>
+      <c r="F138" s="171"/>
+      <c r="G138" s="172"/>
+      <c r="H138" s="172"/>
+      <c r="I138" s="172"/>
+      <c r="J138" s="172"/>
+      <c r="K138" s="172"/>
+      <c r="L138" s="172"/>
+      <c r="M138" s="172"/>
+      <c r="N138" s="172"/>
       <c r="O138" s="4"/>
       <c r="P138" s="4"/>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
-      <c r="B139" s="166"/>
-      <c r="C139" s="166"/>
-      <c r="D139" s="167"/>
-      <c r="E139" s="167"/>
-      <c r="F139" s="167"/>
-      <c r="G139" s="168"/>
-      <c r="H139" s="168"/>
-      <c r="I139" s="168"/>
-      <c r="J139" s="168"/>
-      <c r="K139" s="168"/>
-      <c r="L139" s="168"/>
-      <c r="M139" s="168"/>
-      <c r="N139" s="168"/>
+      <c r="B139" s="170"/>
+      <c r="C139" s="170"/>
+      <c r="D139" s="171"/>
+      <c r="E139" s="171"/>
+      <c r="F139" s="171"/>
+      <c r="G139" s="172"/>
+      <c r="H139" s="172"/>
+      <c r="I139" s="172"/>
+      <c r="J139" s="172"/>
+      <c r="K139" s="172"/>
+      <c r="L139" s="172"/>
+      <c r="M139" s="172"/>
+      <c r="N139" s="172"/>
       <c r="O139" s="4"/>
       <c r="P139" s="4"/>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
-      <c r="B140" s="166"/>
-      <c r="C140" s="166"/>
-      <c r="D140" s="167"/>
-      <c r="E140" s="167"/>
-      <c r="F140" s="167"/>
-      <c r="G140" s="168"/>
-      <c r="H140" s="168"/>
-      <c r="I140" s="168"/>
-      <c r="J140" s="168"/>
-      <c r="K140" s="168"/>
-      <c r="L140" s="168"/>
-      <c r="M140" s="168"/>
-      <c r="N140" s="168"/>
+      <c r="B140" s="170"/>
+      <c r="C140" s="170"/>
+      <c r="D140" s="171"/>
+      <c r="E140" s="171"/>
+      <c r="F140" s="171"/>
+      <c r="G140" s="172"/>
+      <c r="H140" s="172"/>
+      <c r="I140" s="172"/>
+      <c r="J140" s="172"/>
+      <c r="K140" s="172"/>
+      <c r="L140" s="172"/>
+      <c r="M140" s="172"/>
+      <c r="N140" s="172"/>
       <c r="O140" s="4"/>
       <c r="P140" s="4"/>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
-      <c r="B141" s="166"/>
-      <c r="C141" s="166"/>
+      <c r="B141" s="170"/>
+      <c r="C141" s="170"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
-      <c r="G141" s="168"/>
-      <c r="H141" s="168"/>
-      <c r="I141" s="168"/>
-      <c r="J141" s="168"/>
-      <c r="K141" s="168"/>
-      <c r="L141" s="168"/>
-      <c r="M141" s="168"/>
-      <c r="N141" s="168"/>
+      <c r="G141" s="172"/>
+      <c r="H141" s="172"/>
+      <c r="I141" s="172"/>
+      <c r="J141" s="172"/>
+      <c r="K141" s="172"/>
+      <c r="L141" s="172"/>
+      <c r="M141" s="172"/>
+      <c r="N141" s="172"/>
       <c r="O141" s="4"/>
       <c r="P141" s="4"/>
     </row>
@@ -19298,57 +19298,57 @@
       <c r="A1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="180" t="s">
+      <c r="B1" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="181"/>
-      <c r="D1" s="177" t="s">
+      <c r="C1" s="185"/>
+      <c r="D1" s="181" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="178"/>
-      <c r="F1" s="179"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="183"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="180">
+      <c r="B2" s="184">
         <v>2</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="177">
+      <c r="C2" s="185"/>
+      <c r="D2" s="181">
         <v>3</v>
       </c>
-      <c r="E2" s="178"/>
-      <c r="F2" s="179"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="183"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>1</v>
       </c>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="172" t="s">
+      <c r="C3" s="180"/>
+      <c r="D3" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="173"/>
-      <c r="F3" s="174"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="178"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>2</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="176"/>
-      <c r="D4" s="172" t="s">
+      <c r="C4" s="180"/>
+      <c r="D4" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="173"/>
-      <c r="F4" s="174"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -20059,7 +20059,7 @@
         <v>94</v>
       </c>
       <c r="E1" s="115" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -20257,7 +20257,7 @@
         <v>422</v>
       </c>
       <c r="E4" s="115" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -20274,7 +20274,7 @@
         <v>419</v>
       </c>
       <c r="E5" s="115" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
